--- a/Data Excel/AprobacionVentas.xlsx
+++ b/Data Excel/AprobacionVentas.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,12 +411,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>admin@grupokaizen.net</t>
+          <t>automated.test@grupokaizen.net</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>xzigr4SmWZ9Mgtz4Jfx/9Q==</t>
+          <t>aeHFOx8jV/A=</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -441,6 +441,44 @@
         </is>
       </c>
       <c r="H2" t="inlineStr">
+        <is>
+          <t>Aprobar</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>107</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Creado</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>21/01/2020</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>21/01/2020</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aprobar</t>
         </is>
